--- a/vendas Lojas.xlsx
+++ b/vendas Lojas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\guille\Cursos\Analisis de dados\Curso Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B4602-B1A8-4D5B-9755-68CE714693F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3AB89A-3C04-4DA2-904D-3B4F6B2FED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{871E995A-E13D-419B-A0E2-35F0996F1209}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{871E995A-E13D-419B-A0E2-35F0996F1209}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="82" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -445,16 +445,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2400,6 +2400,30 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2441,6 +2465,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-513C-4FF9-9CF5-1FA71AC9CB49}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-513C-4FF9-9CF5-1FA71AC9CB49}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Total!$A$7:$A$9</c:f>
@@ -2609,12 +2671,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3378,10 +3435,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="Agrupar 36">
+        <xdr:cNvPr id="2" name="Agrupar 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B990B9-C794-4275-A0FF-5B0926E193E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17895EB-C768-4A38-B0CD-DDB232A7C15C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,16 +3448,16 @@
         <a:xfrm>
           <a:off x="2552700" y="932748"/>
           <a:ext cx="3543300" cy="1485899"/>
-          <a:chOff x="2543175" y="866775"/>
+          <a:chOff x="2552700" y="932748"/>
           <a:chExt cx="3543300" cy="1485899"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Agrupar 16">
+          <xdr:cNvPr id="37" name="Agrupar 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8E5A97-253A-479E-95D6-DC728859D9E4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B990B9-C794-4275-A0FF-5B0926E193E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3408,222 +3465,372 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="2543175" y="866775"/>
+            <a:off x="2552700" y="932748"/>
             <a:ext cx="3543300" cy="1485899"/>
-            <a:chOff x="2600325" y="1647825"/>
-            <a:chExt cx="3543300" cy="904875"/>
+            <a:chOff x="2543175" y="866775"/>
+            <a:chExt cx="3543300" cy="1485899"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="Total!G7">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="Retângulo: Cantos Arredondados 10">
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="17" name="Agrupar 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A824E6A4-3086-44D3-9BDE-EE4632EC89C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8E5A97-253A-479E-95D6-DC728859D9E4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2600325" y="1676400"/>
-              <a:ext cx="3543300" cy="876300"/>
+              <a:off x="2543175" y="866775"/>
+              <a:ext cx="3543300" cy="1485899"/>
+              <a:chOff x="2600325" y="1647825"/>
+              <a:chExt cx="3543300" cy="904875"/>
             </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="pt-BR" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="Retângulo: Cantos Arredondados 14">
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="Total!G7">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="Retângulo: Cantos Arredondados 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A824E6A4-3086-44D3-9BDE-EE4632EC89C7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2600325" y="1676400"/>
+                <a:ext cx="3543300" cy="876300"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr lang="pt-BR" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="15" name="Retângulo: Cantos Arredondados 14">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34D7293-E749-4598-8D53-E7C34EB10686}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2600325" y="1647825"/>
+                <a:ext cx="3543300" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Toital Vendas </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Imagem 24" descr="Nike Ilustrações, Vetores E Clipart De Stock – (1,879 Stock Illustrations)">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34D7293-E749-4598-8D53-E7C34EB10686}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CC5977-2B9A-4DAB-8DD2-D8F5FC98D0B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2600325" y="1647825"/>
-              <a:ext cx="3543300" cy="247650"/>
+              <a:off x="2619375" y="1286483"/>
+              <a:ext cx="1371600" cy="498150"/>
             </a:xfrm>
-            <a:prstGeom prst="roundRect">
+            <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100" b="1">
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Imagem 26" descr="Reebok Ilustraciones Stock, Vectores, Y Clipart – (103 ...">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473FA0F4-8238-4E8F-90C8-4911835B0E1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect b="1852"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2619375" y="1808140"/>
+              <a:ext cx="1371599" cy="473483"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                </a:rPr>
-                <a:t>Toital Vendas </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
       </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="25" name="Imagem 24" descr="Nike Ilustrações, Vetores E Clipart De Stock – (1,879 Stock Illustrations)">
+      <xdr:sp macro="" textlink="Total!F14">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Retângulo 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CC5977-2B9A-4DAB-8DD2-D8F5FC98D0B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCA42A5-5C09-4E41-A41F-2BBC900370B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="2619375" y="1286483"/>
-            <a:ext cx="1371600" cy="498150"/>
+            <a:off x="4229100" y="1476375"/>
+            <a:ext cx="1524000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:fld id="{55C56297-6819-4368-AD0D-4A0C86F91995}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="Imagem 26" descr="Reebok Ilustraciones Stock, Vectores, Y Clipart – (103 ...">
+                <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:t>R$ 1.410.227,00</a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Total!F15">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Retângulo 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{473FA0F4-8238-4E8F-90C8-4911835B0E1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD7E407-6F21-4165-8F53-11128060CEBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="1852"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="2619375" y="1808140"/>
-            <a:ext cx="1371599" cy="473483"/>
+            <a:off x="4219575" y="1971675"/>
+            <a:ext cx="1524000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:fld id="{E70E382F-17C8-4428-AC85-46E7FCFC1864}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
+                <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:t>R$ 1.291.116,00</a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3642,10 +3849,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="Agrupar 37">
+        <xdr:cNvPr id="6" name="Agrupar 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661335D-508C-44A0-AFEC-B646F10672F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE09E87-A8D2-4F7A-9730-EA20501E00CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,16 +3862,16 @@
         <a:xfrm>
           <a:off x="6457950" y="914400"/>
           <a:ext cx="3543301" cy="1504950"/>
-          <a:chOff x="6457950" y="847725"/>
+          <a:chOff x="6457950" y="914400"/>
           <a:chExt cx="3543301" cy="1504950"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="18" name="Agrupar 17">
+          <xdr:cNvPr id="38" name="Agrupar 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF949A3F-7BAA-4DB7-B788-A75541B974D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661335D-508C-44A0-AFEC-B646F10672F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3672,558 +3879,388 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="6457950" y="847725"/>
+            <a:off x="6457950" y="914400"/>
             <a:ext cx="3543301" cy="1504950"/>
-            <a:chOff x="6657975" y="1638300"/>
-            <a:chExt cx="3543301" cy="895350"/>
+            <a:chOff x="6457950" y="847725"/>
+            <a:chExt cx="3543301" cy="1504950"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="Total!H7">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="Retângulo: Cantos Arredondados 12">
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="18" name="Agrupar 17">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961ACC8D-7CF5-444B-BB9E-3F3657DA54EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF949A3F-7BAA-4DB7-B788-A75541B974D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="6657975" y="1657350"/>
-              <a:ext cx="3543300" cy="876300"/>
+              <a:off x="6457950" y="847725"/>
+              <a:ext cx="3543301" cy="1504950"/>
+              <a:chOff x="6657975" y="1638300"/>
+              <a:chExt cx="3543301" cy="895350"/>
             </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:fld id="{B0163BFF-F18E-40B5-8A3C-4829C6F7C76D}" type="TxLink">
-                <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="Total!H7">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="13" name="Retângulo: Cantos Arredondados 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961ACC8D-7CF5-444B-BB9E-3F3657DA54EC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6657975" y="1657350"/>
+                <a:ext cx="3543300" cy="876300"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{B0163BFF-F18E-40B5-8A3C-4829C6F7C76D}" type="TxLink">
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t> </a:t>
+                </a:fld>
+                <a:endParaRPr lang="pt-BR" sz="2000">
                   <a:solidFill>
-                    <a:srgbClr val="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Aptos Narrow"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="16" name="Retângulo: Cantos Arredondados 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CEC317-C56F-47FC-B2D9-2B176ABB798A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="6667500" y="1638300"/>
+                <a:ext cx="3533776" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst>
+                  <a:gd name="adj" fmla="val 32052"/>
+                </a:avLst>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr algn="ctr"/>
-                <a:t> </a:t>
-              </a:fld>
-              <a:endParaRPr lang="pt-BR" sz="2000">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Retângulo: Cantos Arredondados 15">
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Total Quantidade Vendas </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Imagem 34" descr="Nike Ilustrações, Vetores E Clipart De Stock – (1,879 Stock Illustrations)">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CEC317-C56F-47FC-B2D9-2B176ABB798A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2407F51A-DC05-4B23-8042-171266E53B0B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6667500" y="1638300"/>
-              <a:ext cx="3533776" cy="247650"/>
+              <a:off x="6524625" y="1286483"/>
+              <a:ext cx="1371600" cy="498150"/>
             </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 32052"/>
-              </a:avLst>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100" b="1">
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Imagem 35" descr="Reebok Ilustraciones Stock, Vectores, Y Clipart – (103 ...">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FCCE5E-D56D-4EDF-9636-D8748F6C71DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect b="1852"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6524625" y="1808140"/>
+              <a:ext cx="1371599" cy="473483"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
-                </a:rPr>
-                <a:t>Total Quantidade Vendas </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
       </xdr:grpSp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="35" name="Imagem 34" descr="Nike Ilustrações, Vetores E Clipart De Stock – (1,879 Stock Illustrations)">
+      <xdr:sp macro="" textlink="Total!G15">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Retângulo 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2407F51A-DC05-4B23-8042-171266E53B0B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7798725E-9FA4-42E6-B441-4ED064EC5872}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="6524625" y="1286483"/>
-            <a:ext cx="1371600" cy="498150"/>
+            <a:off x="8124825" y="1990725"/>
+            <a:ext cx="1524000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:fld id="{C3B121FA-93EF-429D-A5A5-E98D1BC2A59C}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="36" name="Imagem 35" descr="Reebok Ilustraciones Stock, Vectores, Y Clipart – (103 ...">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FCCE5E-D56D-4EDF-9636-D8748F6C71DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="1852"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6524625" y="1808140"/>
-            <a:ext cx="1371599" cy="473483"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="Total!F14">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCA42A5-5C09-4E41-A41F-2BBC900370B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="1476375"/>
-          <a:ext cx="1524000" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:fld id="{55C56297-6819-4368-AD0D-4A0C86F91995}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+                <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:t>2270</a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="Total!G14">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Retângulo 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CBF23F-750A-4B48-A3F0-318B36E94AC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8124825" y="1466850"/>
+            <a:ext cx="1524000" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>R$ 1.410.227,00</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="Total!F15">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Retângulo 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD7E407-6F21-4165-8F53-11128060CEBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4219575" y="1971675"/>
-          <a:ext cx="1524000" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:fld id="{E70E382F-17C8-4428-AC85-46E7FCFC1864}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+            <a:fld id="{832C4079-DF8D-4B18-A119-B06E0BF74FE1}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
+              <a:t>2530</a:t>
+            </a:fld>
+            <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>R$ 1.291.116,00</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="Total!G15">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Retângulo 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7798725E-9FA4-42E6-B441-4ED064EC5872}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8124825" y="1990725"/>
-          <a:ext cx="1524000" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:fld id="{C3B121FA-93EF-429D-A5A5-E98D1BC2A59C}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>2270</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="Total!G14">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Retângulo 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CBF23F-750A-4B48-A3F0-318B36E94AC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8124825" y="1466850"/>
-          <a:ext cx="1524000" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:fld id="{832C4079-DF8D-4B18-A119-B06E0BF74FE1}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:t>2530</a:t>
-          </a:fld>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="1" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4239,8 +4276,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Loja de Venda">
@@ -4263,7 +4300,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4317,8 +4354,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Cidade">
@@ -4341,7 +4378,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5784,7 +5821,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4E7FDDE-E2A2-4F5F-9613-B516825E13E2}" name="vendas sapatos" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Marca de Sapato">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4E7FDDE-E2A2-4F5F-9613-B516825E13E2}" name="vendas sapatos" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Marca de Sapato">
   <location ref="A6:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5876,7 +5913,7 @@
     <dataField name="Soma de Total Vendas" fld="8" baseField="0" baseItem="0"/>
     <dataField name="Soma de Quantidade Vendida" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="5" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5891,6 +5928,30 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="60">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="61">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -5972,7 +6033,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Loja de Venda" xr10:uid="{1FD438FC-4B01-45CF-B8B9-3637F0406B5D}" cache="SegmentaçãodeDados_Loja_de_Venda" caption="Loja de Venda" rowHeight="241300"/>
-  <slicer name="Cidade" xr10:uid="{291F2ECC-D77A-49ED-B25D-12D33BA65FBF}" cache="SegmentaçãodeDados_Cidade" caption="Cidade" rowHeight="241300"/>
+  <slicer name="Cidade" xr10:uid="{291F2ECC-D77A-49ED-B25D-12D33BA65FBF}" cache="SegmentaçãodeDados_Cidade" caption="Cidade" startItem="1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -6361,7 +6422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEB93A4-CA7B-4353-A7D5-0379CD6DBAC3}">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -10452,7 +10513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
@@ -10507,11 +10568,11 @@
       <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f>IFERROR(GETPIVOTDATA("Soma de Total Vendas",$A$6,"Marca de Tênis","Nike"),"Sem Vemda")</f>
         <v>1410227</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <f>IFERROR(GETPIVOTDATA("Soma de Quantidade Vendida",$A$6,"Marca de Tênis","Nike"),"Sem Venda")</f>
         <v>2530</v>
       </c>
@@ -10520,11 +10581,11 @@
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f>IFERROR(GETPIVOTDATA("Soma de Total Vendas",$A$6,"Marca de Tênis","Reebok"),"Sem Venda")</f>
         <v>1291116</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <f>IFERROR(GETPIVOTDATA("Soma de Quantidade Vendida",$A$6,"Marca de Tênis","Reebok"),"Sem Venda")</f>
         <v>2270</v>
       </c>
@@ -10538,8 +10599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E45EB7B-105E-4B9B-958E-13B584B69F6F}">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10551,19 +10612,19 @@
       <c r="A2"/>
     </row>
     <row r="4" spans="1:13" ht="19.5">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="11" t="s">
@@ -10588,6 +10649,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="bf2bf9583ec1df50a97eb032e73ea74b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="096b82791b39bbae62349d3751914034" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -10842,27 +10923,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFAE05-DE0C-45B3-9835-C9EF4258C72A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3019d89f-f031-4d1e-b7d8-a3aff2a03c55"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="878716db-020a-4087-b0dc-18eb9c1797a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6237E7D2-1DFE-401B-83AF-9C6661E78B61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57FC75C5-326D-4131-824B-890355521C1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10879,31 +10967,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6237E7D2-1DFE-401B-83AF-9C6661E78B61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFAE05-DE0C-45B3-9835-C9EF4258C72A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3019d89f-f031-4d1e-b7d8-a3aff2a03c55"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="878716db-020a-4087-b0dc-18eb9c1797a2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>